--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/39_Isparta_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/39_Isparta_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD247B42-A6CA-441E-9699-7E61CBD17DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCABE725-80E7-4981-8AA2-9CDEFCF8F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{E3DB169C-6D72-450A-BFC8-92E1FB7D53C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{EC9EF94A-F6B7-4D1F-BDF5-9B1DD6B173F3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{342C28CB-4C0A-45B2-B832-3F9FC806C2E4}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B11134A7-B564-4567-A5B0-B71905E7C797}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EB6B0AB6-8747-4850-8216-0D84EBB2C0D9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8441DFE1-93E3-4C99-BA99-0F17E40C0A3F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DB7ABEF6-3B73-4C2F-B9D0-B7FF45E66561}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{41A68FF1-8229-4909-8F17-253BA8F00540}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F14BF381-A26C-4253-B085-BFFB061E8433}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A31E09C-2868-4963-908D-1082E04B0F12}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F74F27A7-DD29-4FCE-8F64-EB9981B10CB7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0FD8CA0C-0A57-4D06-B1D9-46FC522A999E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5AAEC4E7-9185-4361-AA50-65ECA2430730}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0F8D754D-35D4-4545-AC0E-9D019A759F54}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2E1A9E6C-E040-4F11-9B8E-4C534891D1CF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FD1364BB-50CF-4A7A-8C78-E6BA29363854}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97291327-33CF-4FA4-9390-612D3EC4648B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C467569A-349D-44A8-9019-72F4AD67FD0A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2615,18 +2615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{519C99CB-00D6-43D7-89F8-4377DDDC4159}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F015B750-889D-4509-82DE-3ED5C844E635}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4C30E4A-3CA3-4D7C-ACE8-7BB01572CD2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC6D73D1-17F4-46B0-92B6-8DF846708565}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B7A5227-4F67-4800-9264-C43481485E9A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E632ACFD-F423-41A3-AED2-CF96C6D1AD98}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{508E0B74-D2E7-45D1-87D5-F63E5B320400}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB3B2F25-7CA7-4E63-9461-9F504F4407AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2CC8DC7-83F6-4F0E-BA70-C28706C3B209}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C009C5D1-14B5-45BE-9DA3-A45109221BB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B53D874-57BC-45AD-B691-F613B07F24F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3486CB0A-2F5E-48C0-B7BA-1A18CABD34E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3728AB5B-D2FA-4855-8A4B-35E67C9C68B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4BB8405-26E0-4B2D-9E02-351A91E66A43}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EE3E53C-FD65-419A-9EFD-07EF1B177DA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{843B5409-1B64-4A7C-BDE2-553B69598276}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D494FA06-7146-4AC4-B959-B9FAA892579C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA4B232D-DC32-4885-A318-8362BCD5A6B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7D40CCA-1CF4-4EBF-8FDA-4E44CBEB91A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D087363-199A-48AB-B9B6-39895954E267}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B723A8F-5C4E-4D5D-80F5-DBA0DCF68C85}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED000BE1-ED98-47B9-BB78-D37B659F591B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4947AF35-49FF-46C5-AB67-6845B54D34A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F5D3201-7A05-4D24-B40D-493C6820567D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E56B68E-883C-4221-95BE-D7DF957CDF35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF9EED-9DF2-4557-A5CC-03C9079B06FB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3900,18 +3900,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13CE9BF1-0223-4E98-9800-DF1B0C8BB82E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FAA5FDF-8634-4736-90C9-6BB1536767C2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79F5512D-0D87-447E-A459-6C4F4CBFE665}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF34A82C-1F0B-4E5B-94AA-A1C8FA2DE1D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C613658-4711-455D-88F3-0768AA4ED010}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AB4292A2-C893-44F8-871E-BBCB2CC79A6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D41AA45-1013-4A1C-8FAD-BE053CA61219}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CE22AB9-A560-44FB-8C21-8E49CADF5914}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A7E8102-A9DD-41E3-9549-AA1775B4994D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FC99F077-447C-471E-A2CA-8979F30C864B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ABCB414E-4FF7-4F5E-9974-11F94CA75714}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85D0E686-C8AE-488C-A055-243E9338685A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA11A549-B9BD-4F2F-8054-5E59556A96D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3C5964C-6726-4D31-B89E-21965ED0055C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{697ED12D-E48A-4A1C-92A2-C97830A87A2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFE0B86C-31BF-4294-B903-94DC809145E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4931F689-D4EB-4A0B-946F-0BB506A7B6EF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1826C3ED-51C9-4C8E-8196-751D907A6ED7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD4088FF-F170-4337-B0CB-A8DC9A672CF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD365541-BBA1-465B-BAAF-84799859382D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7A8224E-3829-44F9-AB79-845EA16CE9D1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1B1623C5-8770-4049-9090-DC3FC92F695D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{533404FD-6817-4F00-B376-40D5B6FFC206}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{44F4A85A-D26E-4967-8F18-8321522976EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3924,7 +3924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8288CD3-5810-44EB-A068-F54F5B9CB05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CDF63F-13B9-4B63-BA1F-49637A636C0C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5183,18 +5183,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B0D2DAF-9DB5-445B-B5CC-E706EBEA5086}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16FF5352-ACBE-4895-8380-CDC1C4D87CAC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5CFE598-A6CC-43D3-B140-DB42AFE09636}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C667078-62E3-4552-B65B-9529AB10E690}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67D9FC3D-BCA1-4A45-B2F4-6AE7181F610F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{32411BFC-927E-4AF6-8AD1-0626B1926670}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1A5CC1C-858A-491D-BBDC-6F0C6F5554C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02CE3D1C-83C2-48E9-88C7-D58EB7972840}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D711EFB8-BCC0-4C40-BCB3-D781E7823048}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F6B5D14-3135-4F49-A1C4-FBD1A7785849}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12CC17B4-E533-400C-8C14-C7191AA15099}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37E7396E-197F-47DF-89F7-AEE1A2E3FD75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21F0F8DC-94AC-46CF-810F-E7B45368CFD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FBA6591-D783-4068-A400-93DBB9412D01}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F1B9033-CC80-4C09-B847-56498AD29375}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B3D145E-F394-40EC-9617-9C5BC958FAB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A2FC92F-F803-43EB-AF60-4C0B5C44D21B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19627253-AD5E-4F90-B581-75E7D4B6B08B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BFD429F-F354-4466-BAFE-6A45D4EB0A17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8CBEFDF-E258-4760-A1A8-E5F9C1679F54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FF0E2EA-2810-4A56-A935-65AB3DB43E70}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1C59C9C0-8A75-4196-94A3-DA1B30075179}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AEA2D8B-2802-41C6-B045-590A7359CD22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{078548C3-93D9-4C53-8F8A-A49252537377}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5207,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1923CCEA-69C2-4CEA-9CED-40BE7C10C517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737DB9D0-6461-4D07-BE0C-39A1E7CCEDF5}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6463,18 +6463,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D9AA374-8746-407E-88DB-40EA791674ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6580B07C-62EE-4C1E-B51B-8B0C3C8BCF65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F0683F7-AD63-4B64-A0B3-786700E19718}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DEBE1B64-E288-417F-906D-5456C08EE92A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{987D4958-0942-4FCF-A671-0DD70B5EF506}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13ADC454-27B3-4D90-806E-BB61C3DACD8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D1EE1AE-D925-4336-9776-50A4B3C67DF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E71F774B-41F8-4D31-8269-5E3A97C0D73E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99DC7F72-C53D-4CFE-B4FD-7B2BF08D1BAA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DCFFDE52-CB98-4D67-874F-45A9BA058809}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3578428A-849C-4E4F-82C4-8CC0FC464020}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E00D5C2-6CC3-4BE8-A09B-BB9243002FDE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42F0EEDF-C1A1-469E-B52B-34F29E76671F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B550633-278C-4ABD-A6B5-D8AB52266085}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{208D009D-A189-4AC2-B1F1-40BF3562E861}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78A50AF8-98DB-473A-B131-F53131C7AA51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{800E3B58-5DB1-44DE-A017-0B10530D8DFF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D8FAE4C5-9266-4724-B13C-B75DC8106FA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1CAE11E-FB27-4956-A593-3BBE68E4DD37}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A9C3391-A2D0-4A52-B1F0-C79D2CFEEAA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61188ED1-2BDB-4BE0-BDCF-A0846A99DDB7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3AE31013-AAD5-413D-91F8-3766F1F2F5F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEF3A7E4-22EB-40D5-9DD5-6F4111D36C35}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C946680-5899-4F45-8F9C-62BDC40CE34D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6487,7 +6487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC287CF-AD81-4BDB-8CCD-3426A9746518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC213C5-47FA-4411-AE43-2AE140FBD6BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7770,18 +7770,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CCCCBEB-8B95-4E01-A4D3-7D9E70998929}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1F3EE1A-D659-4571-BA76-6DEFCD312249}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{340E1D60-FE1D-4E96-8B98-10FFA4D321D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AD78C7F-4099-4F11-8CDC-3DDFFEDA7A2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DB8322E-1F32-4B67-923F-9412599739C6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDB30B21-F0A2-40F7-A26E-11D8B8BC5A35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{559C2D5D-DB79-4504-A8C1-D7EC231953EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2153DD89-5595-4013-87EC-2F9714DD0576}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A025BCB6-420E-49D6-BC0E-7B7EFE6A0820}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05A1E83F-C6D4-47C3-8F9C-EDEACC202740}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01946241-F085-4C8C-9A1B-2CBE1EF7EBC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{605563C3-217C-4D5F-82C6-D873188CB0BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C0D13BB-FE27-4F32-B3F3-7DDEB088632E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02BDECA0-BEFF-4C42-850D-05757CD8DAE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8EED5D3-803D-48BA-BA7C-02293E6E7C72}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DA91A64-5F58-47B6-8183-52167508253A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0CE9C652-F43A-4BCD-9D9E-926B80EE8EEF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8ECFAAA2-B787-4FE9-B07D-DBFEB6D80CC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30CD8928-E503-4FCA-81F3-96682FC87391}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A3D9F12-54A1-4120-8574-39E60B1C6FB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65864CE9-49BD-49A8-A9B3-4F8ECF8CC7DD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABA74D7B-0714-4564-A24C-793DB0E069EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAF543D6-7FF0-4729-ADFA-0DFCA0735FB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14AA890A-9EF2-47A9-91C4-08848464D548}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7794,7 +7794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969A7493-32B9-4CCE-85F7-21A9CFAF1055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155B031-8DB3-46F1-89EC-4186746A4B79}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9077,18 +9077,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D0463C2-96C2-4CE9-AF03-FE70E3E39030}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7633A7B-E76F-43F2-87CB-1BE8BC3CA5B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7008C535-D692-4E8F-8404-AAD375A72513}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8FC562A-1227-4DA6-9E80-FA5439743050}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20A6231C-2AE4-48BD-95F4-D96D652AE38F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{27FB4194-AE6C-4355-9F1B-7179EE23A7C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31AF0220-CAD8-4E32-9E57-E0D01A3D5AA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{923EBB1E-288D-4DA8-9321-0E3D44AF51F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE79370B-68E9-43A7-B7F4-DF5E50045426}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ACF67779-C1C0-432F-A4F9-9124F229A0E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97F3B485-A01F-411A-A675-20EB90E11F79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A2FED22-E94A-45D7-9F1F-3A708197F895}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC1A751A-F987-4C26-A8BE-A0E241DA6376}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DB8DD4F-8482-4AAC-8407-2520059713D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0347255-4D14-4E37-AAC7-98166970BAB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47752D0F-B60D-4770-89E0-BCF7B9B3D6BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02040C05-95B9-494A-B4A6-62E61DEA6D07}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E773963-86C6-4488-A278-4AF3E28279D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5DDD44A-7302-486D-BDB8-0177B0EE9182}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C315199-9260-41B1-9C55-F01BF7F8AC9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D50637DA-864F-4356-B74B-2AAF30D8E0EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{30BE0853-74AA-4CB8-9E78-FB039108754E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67EA0C67-28D3-45DF-BA9E-ACF1E52B8BEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4C52E85-FDB6-4CDB-88D4-9FFD3579EEE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9101,7 +9101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E451D44-56ED-42DB-A9C0-04E1A3F9A7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F143677-4495-455C-8298-58E741C78444}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10384,18 +10384,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70B378C4-0093-4B61-A7E1-F6F423690020}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F31227E-C198-4C6F-84B0-79AFE02AA7DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77484973-92D5-4BCE-93E7-5CC137F4238B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{274C94A8-F32D-4204-9B77-53612E1E6168}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{688D55D4-221C-4ACA-A379-B5540E4CCCD4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6918A722-74A4-40BD-B4C8-EF67024F85C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{901386B0-D9C1-4FEC-9DE3-790DAF15E4FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E6ECC35-AE9A-4D67-A19F-D7CA8416B8BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23311703-689C-4DED-9AE1-41A625FD46A8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2311AF77-C542-4BC8-A985-163BA930B2C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9C0F912-A310-49DC-8D19-1C2A812463E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6E0E81D-0D0E-4913-B56E-D04F74A4B944}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A573C655-1C43-4A32-AE5B-F1EE0C06462D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53EE175A-3D26-4C5B-AA0A-C5083CA0AB12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E240E3B-D4C8-4E04-96C5-99E073B0640B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{746A135F-B65F-4742-B6FC-4559E059901D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F819C564-E941-4659-A412-041D7F4536F9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16E439C6-20FB-458E-B8EF-D5A0A17B19C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{224E730F-A3CF-443A-BE2D-1CF0F2E2F79A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E822B3E-37F1-46F7-ACC3-18A0546E51FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BEB0D1E-B4A0-4655-8F56-AA49E8F34C07}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{43826C44-21B9-4781-A24D-BB7475AA3130}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BB3610B-C0A3-43E9-B152-FECC12F9232B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F191D65D-C22C-48D9-B10D-97E9043466E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10408,7 +10408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE7881B-BF19-4791-B785-E0F8304EBA35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C75ACD-D0E7-4A8F-8080-E62A59D7998D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11691,18 +11691,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1907D0DC-0D2E-4C6E-A825-D48A3ACCC6D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD5D5F51-7A14-43E4-AC3E-5A6BE888FB92}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10957A72-8A94-4C28-8B9C-D676EF2FE37E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC210D43-3D6B-4EB3-AECE-D9EEFB7BA158}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E13AB243-A1B0-4CB3-949D-4B82C6070FB2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33F3E87C-A1E8-47F7-9CA1-57E2A6EC2523}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAB62347-20D4-416E-9759-151605ED0F95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D0D1B6E-0A19-4846-95AA-897FB94E344A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6ADB8B5A-2EB0-4F1C-A3AA-DBD3BB3A1B07}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E91200DD-01F7-426B-8CC7-C2509013C7AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F681F408-2E82-4C7F-B2BA-9E24536194CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FFC36C7-71EB-4A1B-AA91-5EB205270C2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BD7C4D3-01DA-4150-88E6-97212FAE440C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{667910D2-B1D8-4495-B5B3-4BFC2FAD2706}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAF36FF4-FEAE-4E00-877B-A65728692DFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F42111B-678D-422E-95FB-2B51F7641C5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FE39D8D-DAD1-4A1D-8231-7B1E54E6E4F0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53968A81-9492-4A4E-A017-A05279213E3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8394EFE9-4C07-4BEA-A952-BD87C5A437FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F61FB6E7-846B-4902-977E-F816F3C6526C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{517D87AE-9596-4571-B93B-2A535A2710E0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3F1B1A89-0195-4DD1-90B8-ACC0433F95EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D919216A-5A99-4439-A98C-54AC7F95D4D3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DF62670-B8CD-4FCD-BB88-C5EF4C7FC01B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11715,7 +11715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120953E8-9CDF-4088-B7DA-523CF104B8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A55D4F-3D9B-4BA6-94A5-6D7A3BA8D4C5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12986,18 +12986,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F6BB6AC-4E94-4A8E-A329-D6D740F49374}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE96317E-4422-408B-8ED8-A483AD542603}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0D92768-61F0-473C-A8E7-1CA0AD5263F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F513F1B-5C5E-48D3-9083-BA6319922D8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0156EDC1-8C0D-4CE9-8B7B-7DE636984D6C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{95F92959-62D6-4712-963C-7B26F859F6A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47AB515A-A9BB-44A0-9B22-731BBF54C17F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD1521A1-6590-4F22-B8C6-322F9D60486B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29C78FEA-AB4F-4205-88DD-E0F207E13CBB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{63401B85-7E8D-405B-99A4-A641AAB2FA18}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45D2AA6D-FF66-46B4-97B2-45274A818115}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED1D22E6-8B59-44BE-9735-26CC7EC16628}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D1512D6-F876-4231-8948-D2A478DEFDDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56E614F8-EB63-40B4-9236-E334F00871CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FD71D215-EA96-42E7-A880-5B81DC36FC0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{67CC321B-4292-4242-91BD-C54D0A8F2FC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B122D927-6903-422C-8E85-42AB49BAF5E9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13CACF1A-D330-4B1B-94E1-29CE6CD87B91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99041CCF-21EC-4D19-8079-6E730CC41BD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{993EB066-E5E2-466D-A1C9-0BC5B53E39C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A4AB31A-3F24-41C3-A5A9-1268BA5A664E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AACEE332-39A0-4AB0-B10A-E3196F25182E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F498499A-9E64-4CE2-BE5C-1A61EE58F8D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{942E7EDD-A853-4D50-B9B5-6A10500C58A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13010,7 +13010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E4956D-6A3B-4319-8A1D-2AC56196740E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B1DD12-4A9C-4A66-8210-BE8334479329}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14275,18 +14275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{589DDDF3-2C7E-47CD-AE05-FDB13BF74C85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B955918-FD37-4AE2-94E6-ECEEC3F8E0CB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34FB4669-9CAF-4047-BA6F-F701944A4B21}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA58D3E3-7B9A-4071-BA54-6B2CD757A4BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F331333B-927E-4B7C-BD55-FD105CDF393E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{61267137-4A23-42BD-AC86-B5B1B380E220}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34176F7C-BF42-49EA-959D-594C207DC1FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{006610F0-807D-4F77-9F61-2927E4FF3A81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FDA5FB1-9AA4-47B8-AAB0-D9D14450E38A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E2986A0-0F88-4E2B-B788-0A5BCAA4619F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1871B4C2-B5E3-4421-9F67-799B26A09B26}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52CF6283-238A-49CE-94CE-040B8158FB8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4F61042-2C4B-47FA-9626-9E875FCF8F2A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D092AE29-97F6-4FCA-B710-7447D2B825CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF7BB242-9912-4CB8-905B-C137C9669417}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81118BBA-A0E0-49A7-AF7B-C0F59A32EF44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83C23DBB-F8C2-4EC4-9FB5-E8F982F2BFEA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62230F48-CBA8-460F-A435-3B1C2120F534}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{344EB17C-91A6-4C4B-AAD8-978A578ED752}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B24A4CC6-EAFB-4995-8CC5-810710CC0AE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23FD1CA1-EA12-4B28-AD56-CE0EA58D1DF5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8FDB3BB5-8530-4CDD-814A-3BE4CEAAF2C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B7E2733-9EBE-4040-8F0A-AA46CACD5CFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A92C3972-B7AF-4BDD-95AF-5EC0660C4FC9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14299,7 +14299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42C2F4A-3CA9-4E91-8C20-D6379D41A166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60802BC4-E1AD-4964-8839-64046C266E68}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15564,18 +15564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F5ECF3F-6A41-4B4E-B03B-31DC71B65A4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9EE19BF-E36D-4D98-BFF7-C402568AD837}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C3543AC-08D8-4B77-B9AA-7A7FA5EAC467}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D14C00B-5273-4F85-AAFC-2543E6D4FD75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A58151B-1DC6-4682-8215-133D001FF8B0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65C72F62-2CCE-43A4-9137-762D76AC475D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EDE3DAC-4997-42D4-9603-E3A63F70A6FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A302F40-D906-409D-B264-D41619188543}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11D40B86-D902-459A-821F-09A954DDC230}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{97C00587-FE10-40FC-871E-860CBDE0EFA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71C7DD4E-68FE-4637-9ED9-A5044D4320CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7C73BE7-7DAC-448D-8D16-B546FB70A0DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97B19E0C-A57C-46A9-9A7B-F10F8E64B00F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D49A599-8AF9-4098-AB33-A14CB2825D2B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D23DA49B-92DD-4EFC-8673-ED5D751D17A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1707717D-C857-4322-8000-5F89BF41C269}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6DDB6B00-5F4C-4DE9-8B7D-DFEE5CF91C7D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D01E0CBF-B0A5-4D53-9089-B761A5D3899B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EA51E40-8C7F-4B42-A7B5-B01415A88F42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB484F4C-431F-42A4-B681-5EFF615FA8D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23F682AE-8A6C-4175-8453-A631F1443FE8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4559FA67-CF40-4A12-A9B2-805B0EAC731A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EEED4B7-FB4F-4899-8E4E-7E3AC13B6145}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DAA9C25-CFAD-4797-B05F-2C9E2CD3E058}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15588,7 +15588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC36599-0822-4A3F-8DFD-D363D2F9B7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90BDCAF-59C8-4737-A7BD-F61E8171F727}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16849,18 +16849,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE6855FC-A7A3-4502-9543-036F91EA5CBA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20FE8032-34FC-48BE-A521-A592D4EEAF75}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F40A3E1A-5755-4AC7-B64E-D14233AE3C82}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4171B263-40F2-430B-B4C7-9C009D442A7B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E1B53BF-5088-475B-A940-B62935256E2A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{125782E9-EAE6-45FE-8CA2-4AD0F9F69EDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66B64234-B3F3-4ADD-93AC-6F76B6E44FDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C77F5FE5-4DCB-4131-B9F7-9AB9BC2BEF80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7E3E226-5006-4FCE-8DF1-23A3A7713859}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{06BA5A91-4D07-4A42-8C27-AFB53E2DF50C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B873AD84-EB22-40B8-96E0-99E1726D55A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{403AA2DF-9D0C-4A79-9CE3-6C581373AB09}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49A92B2E-7202-48FE-AA81-B139EDCFAD78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FFE8D8A-A267-4D18-B038-972899C5B876}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{37D1BA32-E363-46CB-8436-DE18227474DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{361C23FB-0654-42F2-810C-BB66C8878F71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE20BC09-FD5B-4935-9B1D-FFFD146FD759}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A7FD8F2-FB45-4409-9EBD-8CB9A99288DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF558CE0-617C-42FE-BE6E-D46702137C18}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCAB5353-7FA4-4301-BBFC-DD02B0556090}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41028FFC-31DC-4F7A-8223-E362CB07CB19}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{30D2A5C9-27EA-4EBA-8A67-2A9AE0DB5A8F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DB18C22-A181-4436-BC51-8CE1E7976705}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2114FC50-F2CC-40B7-B543-0C4DA2241FDD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
